--- a/example_files/xlsx/1_threshold_application/output/processed_results.xlsx
+++ b/example_files/xlsx/1_threshold_application/output/processed_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J212"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,11 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>taxon</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>final_otu</t>
         </is>
       </c>
@@ -526,6 +531,11 @@
           <t>Nycticorax nycticorax</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Nycticorax nycticorax</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>Bos taurus</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
           <t>Canis lupus</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -750,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -765,17 +800,22 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canis lupus </t>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
         </is>
       </c>
     </row>
@@ -792,16 +832,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -810,14 +850,19 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I9" t="n">
-        <v>99.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -849,17 +894,22 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I10" t="n">
         <v>100</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -891,17 +941,22 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>52</v>
+        <v>1859</v>
       </c>
       <c r="I11" t="n">
         <v>100</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
         </is>
       </c>
     </row>
@@ -918,12 +973,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -933,17 +988,22 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
         <v>100</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -960,12 +1020,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -975,17 +1035,22 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1859</v>
+        <v>127</v>
       </c>
       <c r="I13" t="n">
         <v>100</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Equus caballus</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Equus caballus</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1067,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1017,17 +1082,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I14" t="n">
         <v>100</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Didelphis albiventris</t>
+          <t xml:space="preserve">Sus scrofa </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
     </row>
@@ -1059,17 +1129,22 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I15" t="n">
         <v>100</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Tamandua tetradactyla</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Tamandua tetradactyla</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1176,22 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="I16" t="n">
         <v>100</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Equus caballus</t>
+          <t>Bubulcus ibis</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Bubulcus ibis</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1223,22 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>1013</v>
       </c>
       <c r="I17" t="n">
         <v>100</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sus scrofa </t>
+          <t>Gallus gallus</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1255,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1185,17 +1270,22 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I18" t="n">
         <v>100</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Tamandua tetradactyla</t>
+          <t>Zaedyus pichiy</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Zaedyus pichiy</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1302,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1227,17 +1317,22 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hydrochoerus hydrochaeris</t>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1349,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1269,17 +1364,22 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
+        <v>1111</v>
       </c>
       <c r="I20" t="n">
         <v>100</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Bubulcus ibis</t>
+          <t>Canis aureus</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1396,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1311,17 +1411,22 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1013</v>
+        <v>481</v>
       </c>
       <c r="I21" t="n">
         <v>100</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Zaedyus pichiy</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Zaedyus pichiy</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1443,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1353,17 +1458,22 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I22" t="n">
         <v>100</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Zaedyus pichiy</t>
+          <t>Dasypus yepesi</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Dasypus yepesi</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1490,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1395,15 +1505,20 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I23" t="n">
-        <v>97.04000000000001</v>
+        <v>97.08</v>
       </c>
       <c r="J23" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Euphractus sexcinctus</t>
         </is>
@@ -1437,17 +1552,22 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="I24" t="n">
         <v>100</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -1464,32 +1584,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>481</v>
+        <v>205</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>99.27</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Zaedyus pichiy</t>
+          <t>Callicebus cupreus</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Callicebus cupreus</t>
         </is>
       </c>
     </row>
@@ -1506,32 +1631,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>72</v>
+        <v>1026</v>
       </c>
       <c r="I26" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Dasypus yepesi</t>
+          <t>Callicebus cupreus</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Callicebus cupreus</t>
         </is>
       </c>
     </row>
@@ -1548,32 +1678,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="I27" t="n">
-        <v>97.08</v>
+        <v>100</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Euphractus sexcinctus</t>
+          <t>Pecari tajacu</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Pecari tajacu</t>
         </is>
       </c>
     </row>
@@ -1590,32 +1725,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
         <v>3</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>5</v>
-      </c>
       <c r="H28" t="n">
-        <v>1155</v>
+        <v>32</v>
       </c>
       <c r="I28" t="n">
-        <v>100</v>
+        <v>97.83</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Columba livia</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Columba livia</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1772,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1647,17 +1787,22 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="I29" t="n">
-        <v>99.27</v>
+        <v>97.83</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t>Columba livia</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Columba livia</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1819,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">P4_MC </t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1689,17 +1834,22 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>2474</v>
       </c>
       <c r="I30" t="n">
         <v>100</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t xml:space="preserve"> Columba livia</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Columba livia</t>
         </is>
       </c>
     </row>
@@ -1731,17 +1881,22 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>1026</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t>Coryphospingus cucullatus</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Coryphospingus cucullatus</t>
         </is>
       </c>
     </row>
@@ -1773,17 +1928,22 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I32" t="n">
         <v>100</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Gallus gallus</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
@@ -1815,17 +1975,22 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>32</v>
+        <v>421</v>
       </c>
       <c r="I33" t="n">
-        <v>97.83</v>
+        <v>100</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Columba livia</t>
+          <t>Nycticorax nycticorax</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
     </row>
@@ -1857,17 +2022,22 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="I34" t="n">
-        <v>97.83</v>
+        <v>100</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Columba livia</t>
+          <t>Turdus rufiventris</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Turdus rufiventris</t>
         </is>
       </c>
     </row>
@@ -1884,12 +2054,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1899,17 +2069,22 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2474</v>
+        <v>17</v>
       </c>
       <c r="I35" t="n">
         <v>100</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Columba livia</t>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -1926,12 +2101,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1941,17 +2116,22 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>49</v>
+        <v>704</v>
       </c>
       <c r="I36" t="n">
         <v>100</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Coryphospingus cucullatus</t>
+          <t>Oncorhynchus clarkii</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Oncorhynchus clarkii</t>
         </is>
       </c>
     </row>
@@ -1968,12 +2148,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1983,24 +2163,29 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="I37" t="n">
         <v>100</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Ateles paniscus</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Ateles paniscus</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2010,12 +2195,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2025,24 +2210,29 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>421</v>
+        <v>531</v>
       </c>
       <c r="I38" t="n">
         <v>100</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2052,12 +2242,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2067,24 +2257,29 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>141</v>
+        <v>2482</v>
       </c>
       <c r="I39" t="n">
         <v>100</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Turdus rufiventris</t>
+          <t>Lama guanicoe</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Lama guanicoe</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2094,7 +2289,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2112,21 +2307,26 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I40" t="n">
         <v>100</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2136,7 +2336,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2151,24 +2351,29 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>704</v>
+        <v>139</v>
       </c>
       <c r="I41" t="n">
         <v>100</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Oncorhynchus clarkii</t>
+          <t>Nycticorax nycticorax</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P08</t>
+          <t>P09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2178,16 +2383,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2196,14 +2401,19 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="I42" t="n">
         <v>100</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Ateles paniscus</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2430,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>531</v>
+        <v>42</v>
       </c>
       <c r="I43" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Callicebus cupreus</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Callicebus cupreus</t>
         </is>
       </c>
     </row>
@@ -2262,32 +2477,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>2482</v>
+        <v>84</v>
       </c>
       <c r="I44" t="n">
         <v>100</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Lama guanicoe</t>
+          <t>Canis aureus</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -2304,32 +2524,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
       <c r="H45" t="n">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="I45" t="n">
         <v>100</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
         </is>
       </c>
     </row>
@@ -2346,32 +2571,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="I46" t="n">
         <v>100</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Pecari tajacu</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Pecari tajacu</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2618,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2406,14 +2636,19 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I47" t="n">
         <v>100</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Zaedyus pichiy</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Zaedyus pichiy</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2665,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2448,14 +2683,19 @@
         <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I48" t="n">
-        <v>99.26000000000001</v>
+        <v>96.27</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2712,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2487,17 +2727,22 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>84</v>
+        <v>2645</v>
       </c>
       <c r="I49" t="n">
         <v>100</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Tapirus terrestris</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -2514,12 +2759,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2529,17 +2774,22 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="I50" t="n">
         <v>100</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t xml:space="preserve">Bos taurus </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bos taurus </t>
         </is>
       </c>
     </row>
@@ -2556,12 +2806,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2571,17 +2821,22 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="I51" t="n">
         <v>100</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Canis aureus</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -2598,12 +2853,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2613,17 +2868,22 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>24</v>
+        <v>466</v>
       </c>
       <c r="I52" t="n">
         <v>100</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Zaedyus pichiy</t>
+          <t>Rattus norvegicus</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Rattus norvegicus</t>
         </is>
       </c>
     </row>
@@ -2640,12 +2900,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2655,17 +2915,22 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I53" t="n">
-        <v>96.27</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Euphractus sexcinctus</t>
+          <t>Saguinus midas</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Saguinus midas</t>
         </is>
       </c>
     </row>
@@ -2682,12 +2947,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2697,17 +2962,22 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>2645</v>
+        <v>11</v>
       </c>
       <c r="I54" t="n">
         <v>100</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -2724,12 +2994,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2739,17 +3009,22 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>2268</v>
       </c>
       <c r="I55" t="n">
-        <v>98.55</v>
+        <v>100</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Columba livia</t>
+          <t>Hydrochoerus hydrochaeris</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Hydrochoerus hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -2781,17 +3056,22 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
-        <v>465</v>
+        <v>12</v>
       </c>
       <c r="I56" t="n">
         <v>100</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bos taurus </t>
+          <t>Columba livia</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Columba livia</t>
         </is>
       </c>
     </row>
@@ -2823,17 +3103,22 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="I57" t="n">
         <v>100</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Gallus gallus</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
@@ -2850,12 +3135,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2865,17 +3150,22 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>466</v>
+        <v>61</v>
       </c>
       <c r="I58" t="n">
         <v>100</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Rattus norvegicus</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -2892,12 +3182,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2907,17 +3197,22 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="I59" t="n">
         <v>99.26000000000001</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Saguinus midas</t>
+          <t>Callicebus cupreus</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Callicebus cupreus</t>
         </is>
       </c>
     </row>
@@ -2934,12 +3229,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2949,17 +3244,22 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I60" t="n">
-        <v>100</v>
+        <v>97.06</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Callicebus donacophilus</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Callicebus donacophilus</t>
         </is>
       </c>
     </row>
@@ -2976,12 +3276,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2991,17 +3291,22 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>2268</v>
+        <v>42</v>
       </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Hydrochoerus hydrochaeris</t>
+          <t>Callithrix kuhlii</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Callithrix kuhlii</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3323,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3033,17 +3338,22 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="I62" t="n">
         <v>100</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Columba livia</t>
+          <t>Canis aureus</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -3060,12 +3370,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3075,17 +3385,22 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I63" t="n">
         <v>100</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Rattus tanezumi</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Rattus tanezumi</t>
         </is>
       </c>
     </row>
@@ -3117,17 +3432,22 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H64" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Cairina moschata</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Cairina moschata</t>
         </is>
       </c>
     </row>
@@ -3159,17 +3479,22 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="I65" t="n">
-        <v>99.26000000000001</v>
+        <v>95.59</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t xml:space="preserve"> Columba livia</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Columba livia</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3526,22 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I66" t="n">
-        <v>97.06</v>
+        <v>100</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Callicebus donacophilus</t>
+          <t>Gallus gallus</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Gallus gallus</t>
         </is>
       </c>
     </row>
@@ -3243,17 +3573,22 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Callithrix kuhlii</t>
+          <t>Nymphicus hollandicus</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Nymphicus hollandicus</t>
         </is>
       </c>
     </row>
@@ -3285,17 +3620,22 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H68" t="n">
-        <v>387</v>
+        <v>65</v>
       </c>
       <c r="I68" t="n">
         <v>100</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Thraupis sayaca</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Thraupis sayaca</t>
         </is>
       </c>
     </row>
@@ -3312,32 +3652,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="I69" t="n">
         <v>100</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Rattus tanezumi</t>
+          <t>Canis aureus</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -3354,32 +3699,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I70" t="n">
         <v>100</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cairina moschata</t>
+          <t>Amazilia brevirostris</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Amazilia brevirostris</t>
         </is>
       </c>
     </row>
@@ -3396,32 +3746,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="I71" t="n">
-        <v>95.59</v>
+        <v>100</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Columba livia</t>
+          <t xml:space="preserve">Amazilia versicolor </t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amazilia versicolor </t>
         </is>
       </c>
     </row>
@@ -3438,32 +3793,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t xml:space="preserve">P7_MC </t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I72" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Mazama gouazoupira</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Mazama gouazoupira</t>
         </is>
       </c>
     </row>
@@ -3480,32 +3840,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t xml:space="preserve">P7_MC </t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>18</v>
+        <v>705</v>
       </c>
       <c r="I73" t="n">
         <v>100</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Nymphicus hollandicus</t>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
         </is>
       </c>
     </row>
@@ -3522,32 +3887,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I74" t="n">
-        <v>100</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Thraupis sayaca</t>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
         </is>
       </c>
     </row>
@@ -3564,32 +3934,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>P7_MQ</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="I75" t="n">
         <v>100</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -3606,32 +3981,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>P7_MQ</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>67</v>
+        <v>529</v>
       </c>
       <c r="I76" t="n">
         <v>100</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Amazilia brevirostris</t>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
     </row>
@@ -3648,32 +4028,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>P7_MQ</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="I77" t="n">
         <v>100</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazilia versicolor </t>
+          <t>Canis aureus</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
@@ -3690,32 +4075,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">P7_MC </t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I78" t="n">
-        <v>99.26000000000001</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Mazama gouazoupira</t>
+          <t>Canis familiaris</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Canis familiaris</t>
         </is>
       </c>
     </row>
@@ -3732,32 +4122,37 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">P7_MC </t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
-        <v>705</v>
+        <v>47</v>
       </c>
       <c r="I79" t="n">
         <v>100</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3774,7 +4169,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3789,17 +4184,22 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I80" t="n">
-        <v>97.04000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Euphractus sexcinctus</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -3816,7 +4216,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3831,183 +4231,208 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>33</v>
+        <v>1851</v>
       </c>
       <c r="I81" t="n">
         <v>100</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Rhea americana</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Rhea americana</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>12SrRNA</t>
+          <t>16SrRNA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
-        <v>529</v>
+        <v>315</v>
       </c>
       <c r="I82" t="n">
-        <v>100</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>12SrRNA</t>
+          <t>16SrRNA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6</v>
+      </c>
+      <c r="H83" t="n">
         <v>8</v>
       </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>204</v>
-      </c>
       <c r="I83" t="n">
         <v>100</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>12SrRNA</t>
+          <t>16SrRNA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P1_MQ</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H84" t="n">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I84" t="n">
-        <v>97.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Canis familiaris</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>12SrRNA</t>
+          <t>16SrRNA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I85" t="n">
         <v>100</v>
       </c>
       <c r="J85" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>
@@ -4016,26 +4441,26 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>12SrRNA</t>
+          <t>16SrRNA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -4044,56 +4469,66 @@
         <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I86" t="n">
-        <v>96.3</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Didelphis albiventris</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Didelphis albiventris</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>P09</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12SrRNA</t>
+          <t>16SrRNA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>P8_MC</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1851</v>
+        <v>49</v>
       </c>
       <c r="I87" t="n">
         <v>100</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t xml:space="preserve">Ateles belzebuth </t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ateles belzebuth </t>
         </is>
       </c>
     </row>
@@ -4110,32 +4545,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I88" t="n">
-        <v>100</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Alouatta guariba</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -4152,30 +4592,35 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
-        <v>315</v>
+        <v>14</v>
       </c>
       <c r="I89" t="n">
-        <v>96.20999999999999</v>
+        <v>98.45</v>
       </c>
       <c r="J89" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>
@@ -4194,30 +4639,35 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I90" t="n">
         <v>100</v>
       </c>
       <c r="J90" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>
@@ -4236,32 +4686,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I91" t="n">
         <v>100</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -4278,32 +4733,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>P1_MQ</t>
+          <t>P2_MC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H92" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I92" t="n">
         <v>100</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Cavia porcellus</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Cavia porcellus</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4780,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4335,17 +4795,22 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H93" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I93" t="n">
-        <v>100</v>
+        <v>99.23</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Myocastor coypus</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Myocastor coypus</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4827,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4377,17 +4842,22 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H94" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I94" t="n">
-        <v>99.23999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Didelphis albiventris</t>
+          <t>Sardinella longiceps</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Sardinella longiceps</t>
         </is>
       </c>
     </row>
@@ -4419,17 +4889,22 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H95" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I95" t="n">
         <v>100</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ateles belzebuth </t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4921,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4464,14 +4939,19 @@
         <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I96" t="n">
-        <v>99.23999999999999</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Priodontes maximus</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Priodontes maximus</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4968,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4506,14 +4986,19 @@
         <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="I97" t="n">
-        <v>98.45</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -4530,7 +5015,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4545,15 +5030,20 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="I98" t="n">
         <v>100</v>
       </c>
       <c r="J98" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>
@@ -4572,32 +5062,37 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="I99" t="n">
         <v>100</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -4614,32 +5109,37 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
         <v>2</v>
       </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>11</v>
-      </c>
       <c r="H100" t="n">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="I100" t="n">
         <v>100</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Cavia porcellus</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -4656,32 +5156,37 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="I101" t="n">
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Myocastor coypus</t>
+          <t>Equus caballus</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Equus caballus</t>
         </is>
       </c>
     </row>
@@ -4698,32 +5203,37 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
         <v>2</v>
       </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="n">
-        <v>13</v>
-      </c>
       <c r="H102" t="n">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="I102" t="n">
-        <v>98.7</v>
+        <v>100</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Sardinella longiceps</t>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -4740,32 +5250,37 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="I103" t="n">
-        <v>100</v>
+        <v>97.48</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Lycalopex sechurae</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Lycalopex sechurae</t>
         </is>
       </c>
     </row>
@@ -4782,32 +5297,37 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MQ</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I104" t="n">
-        <v>98.54000000000001</v>
+        <v>100</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Priodontes maximus</t>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -4824,32 +5344,37 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E105" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
         <v>2</v>
       </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" t="n">
-        <v>3</v>
-      </c>
       <c r="H105" t="n">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="I105" t="n">
-        <v>99.26000000000001</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Speothos venaticus</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Speothos venaticus</t>
         </is>
       </c>
     </row>
@@ -4866,32 +5391,37 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>P2_MC</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I106" t="n">
         <v>100</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t xml:space="preserve">Sphiggurus insidiosus </t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphiggurus insidiosus </t>
         </is>
       </c>
     </row>
@@ -4908,7 +5438,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4926,14 +5456,19 @@
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="I107" t="n">
-        <v>100</v>
+        <v>93.23</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Callicebus lugens</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Callicebus lugens</t>
         </is>
       </c>
     </row>
@@ -4950,7 +5485,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4968,12 +5503,17 @@
         <v>2</v>
       </c>
       <c r="H108" t="n">
-        <v>198</v>
+        <v>482</v>
       </c>
       <c r="I108" t="n">
         <v>100</v>
       </c>
       <c r="J108" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>
@@ -4992,12 +5532,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -5007,17 +5547,22 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="I109" t="n">
-        <v>100</v>
+        <v>99.22</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Equus caballus</t>
+          <t>Didelphis albiventris</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Didelphis albiventris</t>
         </is>
       </c>
     </row>
@@ -5034,12 +5579,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5049,17 +5594,22 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="I110" t="n">
-        <v>100</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Euphractus sexcinctus</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Euphractus sexcinctus</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5626,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5091,17 +5641,22 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H111" t="n">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="I111" t="n">
-        <v>97.48</v>
+        <v>100</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Lycalopex sechurae</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -5118,12 +5673,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>P3_MQ</t>
+          <t>P3_MC</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5133,15 +5688,20 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H112" t="n">
-        <v>151</v>
+        <v>1314</v>
       </c>
       <c r="I112" t="n">
         <v>100</v>
       </c>
       <c r="J112" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>Sus scrofa</t>
         </is>
@@ -5160,7 +5720,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5175,17 +5735,22 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="I113" t="n">
-        <v>98.45999999999999</v>
+        <v>99.27</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Speothos venaticus</t>
+          <t>Bradypus tridactylus</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Bradypus tridactylus</t>
         </is>
       </c>
     </row>
@@ -5202,7 +5767,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5220,14 +5785,19 @@
         <v>3</v>
       </c>
       <c r="H114" t="n">
-        <v>115</v>
+        <v>930</v>
       </c>
       <c r="I114" t="n">
         <v>100</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sphiggurus insidiosus </t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5814,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5262,14 +5832,19 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="I115" t="n">
-        <v>93.23</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Callicebus lugens</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5861,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5304,14 +5879,19 @@
         <v>2</v>
       </c>
       <c r="H116" t="n">
-        <v>482</v>
+        <v>58</v>
       </c>
       <c r="I116" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5908,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5346,14 +5926,19 @@
         <v>3</v>
       </c>
       <c r="H117" t="n">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I117" t="n">
-        <v>99.22</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Didelphis albiventris</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5955,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5385,17 +5970,22 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I118" t="n">
-        <v>99.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Euphractus sexcinctus</t>
+          <t>Tapirus terrestris</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -5412,32 +6002,37 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="I119" t="n">
         <v>100</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Chiropotes albinasus</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Chiropotes albinasus</t>
         </is>
       </c>
     </row>
@@ -5454,32 +6049,37 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>1314</v>
+        <v>33</v>
       </c>
       <c r="I120" t="n">
-        <v>100</v>
+        <v>98.47</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
@@ -5496,32 +6096,37 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
         <v>3</v>
       </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1</v>
-      </c>
       <c r="H121" t="n">
-        <v>421</v>
+        <v>48</v>
       </c>
       <c r="I121" t="n">
-        <v>99.27</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Bradypus tridactylus</t>
+          <t>Procyon lotor</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Procyon lotor</t>
         </is>
       </c>
     </row>
@@ -5538,32 +6143,37 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122" t="n">
-        <v>930</v>
+        <v>110</v>
       </c>
       <c r="I122" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -5580,32 +6190,37 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H123" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I123" t="n">
         <v>99.23999999999999</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -5622,32 +6237,37 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
         <v>3</v>
       </c>
-      <c r="F124" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2</v>
-      </c>
       <c r="H124" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I124" t="n">
-        <v>97.52</v>
+        <v>99.23</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t xml:space="preserve">Dasypus sabanicola </t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypus sabanicola </t>
         </is>
       </c>
     </row>
@@ -5664,32 +6284,37 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I125" t="n">
-        <v>99.23999999999999</v>
+        <v>97.52</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -5706,16 +6331,16 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>P3_MC</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5724,14 +6349,19 @@
         <v>5</v>
       </c>
       <c r="H126" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I126" t="n">
         <v>100</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -5748,7 +6378,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5763,17 +6393,22 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I127" t="n">
-        <v>100</v>
+        <v>99.27</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Chiropotes albinasus</t>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
         </is>
       </c>
     </row>
@@ -5790,7 +6425,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5805,17 +6440,22 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H128" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I128" t="n">
-        <v>98.47</v>
+        <v>100</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -5832,7 +6472,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5847,17 +6487,22 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H129" t="n">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="I129" t="n">
-        <v>96.98999999999999</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Procyon lotor</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -5874,7 +6519,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5889,17 +6534,22 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H130" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I130" t="n">
-        <v>97.52</v>
+        <v>96.3</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Didelphis marsupialis</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Didelphis marsupialis</t>
         </is>
       </c>
     </row>
@@ -5916,7 +6566,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5931,17 +6581,22 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H131" t="n">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="I131" t="n">
-        <v>99.23999999999999</v>
+        <v>99.28</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -5958,12 +6613,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -5973,17 +6628,22 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H132" t="n">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="I132" t="n">
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dasypus sabanicola </t>
+          <t>Pecari tajacu</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Pecari tajacu</t>
         </is>
       </c>
     </row>
@@ -6000,12 +6660,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -6015,17 +6675,22 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H133" t="n">
-        <v>21</v>
+        <v>666</v>
       </c>
       <c r="I133" t="n">
-        <v>97.52</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
@@ -6042,12 +6707,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P4_MQ</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -6057,17 +6722,22 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H134" t="n">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="I134" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -6099,17 +6769,22 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H135" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I135" t="n">
-        <v>99.27</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Alouatta guariba</t>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
@@ -6141,17 +6816,22 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H136" t="n">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="I136" t="n">
-        <v>97.06</v>
+        <v>97.78</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Callithrix emiliae </t>
+          <t>Speothos venaticus</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Speothos venaticus</t>
         </is>
       </c>
     </row>
@@ -6183,17 +6863,22 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H137" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I137" t="n">
-        <v>100</v>
+        <v>91.3</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Trinomys dimidiatus</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Trinomys dimidiatus</t>
         </is>
       </c>
     </row>
@@ -6210,12 +6895,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6225,17 +6910,22 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>237</v>
+        <v>443</v>
       </c>
       <c r="I138" t="n">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -6252,12 +6942,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6267,17 +6957,22 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I139" t="n">
-        <v>96.3</v>
+        <v>100</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Didelphis marsupialis</t>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -6294,12 +6989,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -6309,17 +7004,22 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="I140" t="n">
-        <v>99.28</v>
+        <v>98.47</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
     </row>
@@ -6336,12 +7036,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -6351,17 +7051,22 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="I141" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -6378,12 +7083,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6393,17 +7098,22 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>666</v>
+        <v>232</v>
       </c>
       <c r="I142" t="n">
-        <v>97.79000000000001</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -6420,12 +7130,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6435,24 +7145,29 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H143" t="n">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="I143" t="n">
-        <v>97.52</v>
+        <v>95.52</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Trinomys dimidiatus</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Trinomys dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6462,12 +7177,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -6477,24 +7192,29 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="I144" t="n">
-        <v>99.26000000000001</v>
+        <v>100</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6504,12 +7224,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6519,24 +7239,29 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
-        <v>334</v>
+        <v>1654</v>
       </c>
       <c r="I145" t="n">
-        <v>97.78</v>
+        <v>100</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Speothos venaticus</t>
+          <t>Lama glama</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Lama glama</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6546,12 +7271,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>P4_MQ</t>
+          <t>P4_MC</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -6561,24 +7286,29 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I146" t="n">
-        <v>91.3</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Trinomys dimidiatus</t>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6588,7 +7318,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6603,24 +7333,29 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
-        <v>443</v>
+        <v>23</v>
       </c>
       <c r="I147" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6630,7 +7365,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6645,24 +7380,29 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H148" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I148" t="n">
-        <v>100</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Pudu puda</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Pudu puda</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6672,7 +7412,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6690,12 +7430,17 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="I149" t="n">
-        <v>98.47</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="J149" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>Ateles belzebuth</t>
         </is>
@@ -6704,7 +7449,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6714,7 +7459,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6729,24 +7474,29 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I150" t="n">
-        <v>97.52</v>
+        <v>100</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6756,39 +7506,44 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P5_MQ</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="I151" t="n">
-        <v>99.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6798,32 +7553,37 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TY</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P5_MQ</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="I152" t="n">
-        <v>95.52</v>
+        <v>100</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Trinomys dimidiatus</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -6840,16 +7600,16 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -6858,14 +7618,19 @@
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="I153" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Canis familiaris</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Canis familiaris</t>
         </is>
       </c>
     </row>
@@ -6882,16 +7647,16 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -6900,14 +7665,19 @@
         <v>2</v>
       </c>
       <c r="H154" t="n">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I154" t="n">
-        <v>100</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Priodontes maximus</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Priodontes maximus</t>
         </is>
       </c>
     </row>
@@ -6924,32 +7694,37 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TF</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
-        <v>1654</v>
+        <v>426</v>
       </c>
       <c r="I155" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -6966,32 +7741,37 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I156" t="n">
-        <v>97.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -7008,32 +7788,37 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I157" t="n">
-        <v>97.52</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
@@ -7050,32 +7835,37 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E158" t="n">
+        <v>6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
         <v>4</v>
       </c>
-      <c r="F158" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" t="n">
-        <v>7</v>
-      </c>
       <c r="H158" t="n">
-        <v>22</v>
+        <v>1550</v>
       </c>
       <c r="I158" t="n">
-        <v>97.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Pudu puda</t>
+          <t>Tapirus terrestris</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
     </row>
@@ -7092,32 +7882,37 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>84</v>
+        <v>805</v>
       </c>
       <c r="I159" t="n">
-        <v>99.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -7134,32 +7929,37 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>P4_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H160" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I160" t="n">
-        <v>100</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -7176,32 +7976,37 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>P5_MQ</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H161" t="n">
-        <v>53</v>
+        <v>1690</v>
       </c>
       <c r="I161" t="n">
         <v>100</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -7218,32 +8023,37 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>P5_MQ</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H162" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I162" t="n">
-        <v>100</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Nasua nasua</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Nasua nasua</t>
         </is>
       </c>
     </row>
@@ -7260,12 +8070,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -7275,17 +8085,22 @@
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H163" t="n">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="I163" t="n">
-        <v>99.26000000000001</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Canis familiaris</t>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
@@ -7302,12 +8117,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -7317,17 +8132,22 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H164" t="n">
-        <v>88</v>
+        <v>1801</v>
       </c>
       <c r="I164" t="n">
-        <v>98.54000000000001</v>
+        <v>97.52</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Priodontes maximus</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -7344,12 +8164,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TF</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -7359,17 +8179,22 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H165" t="n">
-        <v>426</v>
+        <v>21</v>
       </c>
       <c r="I165" t="n">
-        <v>99.26000000000001</v>
+        <v>93.94</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Pteralopex atrata</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Pteralopex atrata</t>
         </is>
       </c>
     </row>
@@ -7386,12 +8211,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P6_MQ</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -7401,17 +8226,22 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H166" t="n">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="I166" t="n">
         <v>100</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
@@ -7428,7 +8258,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7446,14 +8276,19 @@
         <v>2</v>
       </c>
       <c r="H167" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I167" t="n">
-        <v>97.70999999999999</v>
+        <v>97.52</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -7470,7 +8305,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7488,12 +8323,17 @@
         <v>3</v>
       </c>
       <c r="H168" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I168" t="n">
         <v>100</v>
       </c>
       <c r="J168" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>Sphiggurus insidiosus</t>
         </is>
@@ -7512,7 +8352,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7527,17 +8367,22 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1550</v>
+        <v>85</v>
       </c>
       <c r="I169" t="n">
         <v>100</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
@@ -7554,12 +8399,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -7572,14 +8417,19 @@
         <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>805</v>
+        <v>21</v>
       </c>
       <c r="I170" t="n">
-        <v>100</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Callithrix emiliae</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Callithrix emiliae</t>
         </is>
       </c>
     </row>
@@ -7596,12 +8446,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -7611,17 +8461,22 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I171" t="n">
-        <v>96.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Callithrix penicillata</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Callithrix penicillata</t>
         </is>
       </c>
     </row>
@@ -7638,12 +8493,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -7653,17 +8508,22 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H172" t="n">
-        <v>1690</v>
+        <v>25</v>
       </c>
       <c r="I172" t="n">
         <v>100</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -7680,12 +8540,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -7695,17 +8555,22 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H173" t="n">
-        <v>44</v>
+        <v>570</v>
       </c>
       <c r="I173" t="n">
-        <v>96.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Nasua nasua</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -7722,12 +8587,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -7737,17 +8602,22 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H174" t="n">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="I174" t="n">
-        <v>97.70999999999999</v>
+        <v>98.48</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Chrysocyon brachyurus</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Chrysocyon brachyurus</t>
         </is>
       </c>
     </row>
@@ -7764,12 +8634,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7779,17 +8649,22 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H175" t="n">
-        <v>1801</v>
+        <v>32</v>
       </c>
       <c r="I175" t="n">
-        <v>97.52</v>
+        <v>97.67</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Dasypus sabanicola</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Dasypus sabanicola</t>
         </is>
       </c>
     </row>
@@ -7806,12 +8681,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -7821,17 +8696,22 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H176" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I176" t="n">
-        <v>93.94</v>
+        <v>99.25</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Pteralopex atrata</t>
+          <t>Hydrochaeris hydrochaeris</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
     </row>
@@ -7848,12 +8728,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -7863,17 +8743,22 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H177" t="n">
-        <v>229</v>
+        <v>723</v>
       </c>
       <c r="I177" t="n">
-        <v>100</v>
+        <v>98.47</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Plecturocebus moloch</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
     </row>
@@ -7890,12 +8775,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>P6_MQ</t>
+          <t>P6_MC</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -7905,17 +8790,22 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H178" t="n">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="I178" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Rattus hoogerwerfi</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -7932,7 +8822,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7947,17 +8837,22 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H179" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I179" t="n">
-        <v>97.52</v>
+        <v>99.23</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
@@ -7974,7 +8869,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7989,17 +8884,22 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H180" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I180" t="n">
         <v>100</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t>Rattus rattus</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Rattus rattus</t>
         </is>
       </c>
     </row>
@@ -8031,17 +8931,22 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H181" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="I181" t="n">
-        <v>100</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Speothos venaticus</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Speothos venaticus</t>
         </is>
       </c>
     </row>
@@ -8073,17 +8978,22 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H182" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I182" t="n">
-        <v>97.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Callithrix emiliae</t>
+          <t>Sus scrofa</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Sus scrofa</t>
         </is>
       </c>
     </row>
@@ -8100,7 +9010,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -8115,17 +9025,22 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="I183" t="n">
-        <v>100</v>
+        <v>97.52</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Callithrix penicillata</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -8142,7 +9057,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8157,17 +9072,22 @@
         <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="I184" t="n">
-        <v>100</v>
+        <v>97.69</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
@@ -8184,32 +9104,37 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>570</v>
+        <v>109</v>
       </c>
       <c r="I185" t="n">
         <v>100</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
     </row>
@@ -8226,32 +9151,37 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="I186" t="n">
-        <v>98.48</v>
+        <v>100</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Chrysocyon brachyurus</t>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
@@ -8268,32 +9198,37 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H187" t="n">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="I187" t="n">
-        <v>97.67</v>
+        <v>100</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Dasypus sabanicola</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -8310,32 +9245,37 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MQ</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H188" t="n">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="I188" t="n">
-        <v>99.25</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Sylvilagus floridanus</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
     </row>
@@ -8352,32 +9292,37 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MC</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="I189" t="n">
-        <v>99.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
         </is>
       </c>
     </row>
@@ -8394,32 +9339,37 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MC</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
-        <v>723</v>
+        <v>209</v>
       </c>
       <c r="I190" t="n">
-        <v>98.47</v>
+        <v>97.52</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
     </row>
@@ -8436,32 +9386,37 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MC</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="I191" t="n">
-        <v>97.52</v>
+        <v>100</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Puma concolor</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
@@ -8478,32 +9433,37 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MC</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H192" t="n">
-        <v>53</v>
+        <v>571</v>
       </c>
       <c r="I192" t="n">
-        <v>99.23</v>
+        <v>100</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Sphiggurus insidiosus</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
     </row>
@@ -8520,32 +9480,37 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MC</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H193" t="n">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I193" t="n">
-        <v>100</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Rattus rattus</t>
+          <t>Sylvilagus floridanus</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
     </row>
@@ -8562,32 +9527,37 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P7_MC</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="I194" t="n">
-        <v>98.45999999999999</v>
+        <v>99.23</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Speothos venaticus</t>
+          <t>Ateles belzebuth</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
     </row>
@@ -8604,32 +9574,37 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I195" t="n">
-        <v>100</v>
+        <v>99.27</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Alouatta guariba</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Alouatta guariba</t>
         </is>
       </c>
     </row>
@@ -8646,25 +9621,25 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H196" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I196" t="n">
         <v>97.52</v>
@@ -8674,6 +9649,11 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Pseudalopex culpaeus</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8688,16 +9668,16 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>P6_MC</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -8706,14 +9686,19 @@
         <v>2</v>
       </c>
       <c r="H197" t="n">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="I197" t="n">
-        <v>97.69</v>
+        <v>99.25</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Tamandua tetradactyla</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Tamandua tetradactyla</t>
         </is>
       </c>
     </row>
@@ -8730,16 +9715,16 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>P7_MQ</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -8748,14 +9733,19 @@
         <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="I198" t="n">
-        <v>100</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Didelphis marsupialis</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Didelphis marsupialis</t>
         </is>
       </c>
     </row>
@@ -8772,16 +9762,16 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TY</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>P7_MQ</t>
+          <t>P8_MC</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -8790,558 +9780,17 @@
         <v>2</v>
       </c>
       <c r="H199" t="n">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="I199" t="n">
         <v>100</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>TM</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>P7_MQ</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>7</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" t="n">
-        <v>4</v>
-      </c>
-      <c r="H200" t="n">
-        <v>349</v>
-      </c>
-      <c r="I200" t="n">
-        <v>100</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>TM</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>P7_MQ</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>7</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1</v>
-      </c>
-      <c r="G201" t="n">
-        <v>5</v>
-      </c>
-      <c r="H201" t="n">
-        <v>207</v>
-      </c>
-      <c r="I201" t="n">
-        <v>96.34999999999999</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>Sylvilagus floridanus</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>P7_MC</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>7</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1</v>
-      </c>
-      <c r="H202" t="n">
-        <v>62</v>
-      </c>
-      <c r="I202" t="n">
-        <v>100</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>P7_MC</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>7</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1</v>
-      </c>
-      <c r="G203" t="n">
-        <v>2</v>
-      </c>
-      <c r="H203" t="n">
-        <v>209</v>
-      </c>
-      <c r="I203" t="n">
-        <v>97.52</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>P7_MC</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>7</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1</v>
-      </c>
-      <c r="G204" t="n">
-        <v>3</v>
-      </c>
-      <c r="H204" t="n">
-        <v>66</v>
-      </c>
-      <c r="I204" t="n">
-        <v>100</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>P7_MC</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1</v>
-      </c>
-      <c r="G205" t="n">
-        <v>4</v>
-      </c>
-      <c r="H205" t="n">
-        <v>571</v>
-      </c>
-      <c r="I205" t="n">
-        <v>100</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>P7_MC</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>7</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1</v>
-      </c>
-      <c r="G206" t="n">
-        <v>5</v>
-      </c>
-      <c r="H206" t="n">
-        <v>64</v>
-      </c>
-      <c r="I206" t="n">
-        <v>96.34999999999999</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Sylvilagus floridanus</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>P7_MC</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>7</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1</v>
-      </c>
-      <c r="H207" t="n">
-        <v>219</v>
-      </c>
-      <c r="I207" t="n">
-        <v>99.23</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>P8_MC</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>8</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1</v>
-      </c>
-      <c r="G208" t="n">
-        <v>1</v>
-      </c>
-      <c r="H208" t="n">
-        <v>77</v>
-      </c>
-      <c r="I208" t="n">
-        <v>99.27</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>P8_MC</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>8</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1</v>
-      </c>
-      <c r="G209" t="n">
-        <v>3</v>
-      </c>
-      <c r="H209" t="n">
-        <v>48</v>
-      </c>
-      <c r="I209" t="n">
-        <v>97.52</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>P8_MC</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>8</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1</v>
-      </c>
-      <c r="G210" t="n">
-        <v>2</v>
-      </c>
-      <c r="H210" t="n">
-        <v>273</v>
-      </c>
-      <c r="I210" t="n">
-        <v>99.25</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Tamandua tetradactyla</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>TY</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>P8_MC</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>8</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1</v>
-      </c>
-      <c r="G211" t="n">
-        <v>1</v>
-      </c>
-      <c r="H211" t="n">
-        <v>48</v>
-      </c>
-      <c r="I211" t="n">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Didelphis marsupialis</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>16SrRNA</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>TY</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>P8_MC</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" t="n">
-        <v>2</v>
-      </c>
-      <c r="H212" t="n">
-        <v>83</v>
-      </c>
-      <c r="I212" t="n">
-        <v>100</v>
-      </c>
-      <c r="J212" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>Pseudalopex culpaeus</t>
         </is>

--- a/example_files/xlsx/1_threshold_application/output/processed_results.xlsx
+++ b/example_files/xlsx/1_threshold_application/output/processed_results.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>final_otu</t>
+          <t>final_otu_curated</t>
         </is>
       </c>
     </row>
@@ -531,11 +531,7 @@
           <t>Nycticorax nycticorax</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nycticorax nycticorax</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -578,11 +574,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -625,11 +617,7 @@
           <t>Canis lupus</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Canis lupus</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,11 +660,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -719,11 +703,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -766,11 +746,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -813,11 +789,7 @@
           <t>Canis lupus</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Canis lupus</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -860,11 +832,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -907,11 +875,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -954,11 +918,7 @@
           <t>Rhea americana</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1001,11 +961,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1048,11 +1004,7 @@
           <t>Equus caballus</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Equus caballus</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1095,11 +1047,7 @@
           <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sus scrofa </t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1142,11 +1090,7 @@
           <t>Tamandua tetradactyla</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Tamandua tetradactyla</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1189,11 +1133,7 @@
           <t>Bubulcus ibis</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Bubulcus ibis</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1236,11 +1176,7 @@
           <t>Gallus gallus</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1283,11 +1219,7 @@
           <t>Zaedyus pichiy</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1330,11 +1262,7 @@
           <t>Euphractus sexcinctus</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1377,11 +1305,7 @@
           <t>Canis aureus</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Canis aureus</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1424,11 +1348,7 @@
           <t>Zaedyus pichiy</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1471,11 +1391,7 @@
           <t>Dasypus yepesi</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Dasypus yepesi</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1518,11 +1434,7 @@
           <t>Euphractus sexcinctus</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1565,11 +1477,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1612,11 +1520,7 @@
           <t>Callicebus cupreus</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Callicebus cupreus</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1659,11 +1563,7 @@
           <t>Callicebus cupreus</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Callicebus cupreus</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1706,11 +1606,7 @@
           <t>Pecari tajacu</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Pecari tajacu</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1753,11 +1649,7 @@
           <t>Columba livia</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Columba livia</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1800,11 +1692,7 @@
           <t>Columba livia</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Columba livia</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1847,11 +1735,7 @@
           <t xml:space="preserve"> Columba livia</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Columba livia</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1894,11 +1778,7 @@
           <t>Coryphospingus cucullatus</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Coryphospingus cucullatus</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1941,11 +1821,7 @@
           <t>Gallus gallus</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1988,11 +1864,7 @@
           <t>Nycticorax nycticorax</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Nycticorax nycticorax</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2035,11 +1907,7 @@
           <t>Turdus rufiventris</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Turdus rufiventris</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2082,11 +1950,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2129,11 +1993,7 @@
           <t>Oncorhynchus clarkii</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Oncorhynchus clarkii</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2176,11 +2036,7 @@
           <t>Ateles paniscus</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Ateles paniscus</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2223,11 +2079,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2270,11 +2122,7 @@
           <t>Lama guanicoe</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Lama guanicoe</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2317,11 +2165,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2364,11 +2208,7 @@
           <t>Nycticorax nycticorax</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Nycticorax nycticorax</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2411,11 +2251,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2458,11 +2294,7 @@
           <t>Callicebus cupreus</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Callicebus cupreus</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2505,11 +2337,7 @@
           <t>Canis aureus</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Canis aureus</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2552,11 +2380,7 @@
           <t>Canis lupus</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Canis lupus</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2599,11 +2423,7 @@
           <t>Pecari tajacu</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Pecari tajacu</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2646,11 +2466,7 @@
           <t>Zaedyus pichiy</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2693,11 +2509,7 @@
           <t>Euphractus sexcinctus</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2740,11 +2552,7 @@
           <t>Tapirus terrestris</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Tapirus terrestris</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2787,11 +2595,7 @@
           <t xml:space="preserve">Bos taurus </t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bos taurus </t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2834,11 +2638,7 @@
           <t>Canis aureus</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Canis aureus</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2881,11 +2681,7 @@
           <t>Rattus norvegicus</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Rattus norvegicus</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2928,11 +2724,7 @@
           <t>Saguinus midas</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Saguinus midas</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2975,11 +2767,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3022,11 +2810,7 @@
           <t>Hydrochoerus hydrochaeris</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Hydrochoerus hydrochaeris</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3069,11 +2853,7 @@
           <t>Columba livia</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Columba livia</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3116,11 +2896,7 @@
           <t>Gallus gallus</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3163,11 +2939,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3210,11 +2982,7 @@
           <t>Callicebus cupreus</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Callicebus cupreus</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3257,11 +3025,7 @@
           <t>Callicebus donacophilus</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Callicebus donacophilus</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3304,11 +3068,7 @@
           <t>Callithrix kuhlii</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Callithrix kuhlii</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3351,11 +3111,7 @@
           <t>Canis aureus</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Canis aureus</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3398,11 +3154,7 @@
           <t>Rattus tanezumi</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Rattus tanezumi</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3445,11 +3197,7 @@
           <t>Cairina moschata</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Cairina moschata</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3492,11 +3240,7 @@
           <t xml:space="preserve"> Columba livia</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Columba livia</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3539,11 +3283,7 @@
           <t>Gallus gallus</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Gallus gallus</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3586,11 +3326,7 @@
           <t>Nymphicus hollandicus</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Nymphicus hollandicus</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3633,11 +3369,7 @@
           <t>Thraupis sayaca</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Thraupis sayaca</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3680,11 +3412,7 @@
           <t>Canis aureus</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Canis aureus</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3727,11 +3455,7 @@
           <t>Amazilia brevirostris</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Amazilia brevirostris</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3774,11 +3498,7 @@
           <t xml:space="preserve">Amazilia versicolor </t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amazilia versicolor </t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3821,11 +3541,7 @@
           <t>Mazama gouazoupira</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Mazama gouazoupira</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3868,11 +3584,7 @@
           <t>Rhea americana</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3915,11 +3627,7 @@
           <t>Euphractus sexcinctus</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3962,11 +3670,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4009,11 +3713,7 @@
           <t>Ateles belzebuth</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4056,11 +3756,7 @@
           <t>Canis aureus</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Canis aureus</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4103,11 +3799,7 @@
           <t>Canis familiaris</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Canis familiaris</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4150,11 +3842,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4197,11 +3885,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4244,11 +3928,7 @@
           <t>Rhea americana</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4291,11 +3971,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4338,11 +4014,7 @@
           <t>Puma concolor</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4385,11 +4057,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4432,11 +4100,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4479,11 +4143,7 @@
           <t>Didelphis albiventris</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Didelphis albiventris</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4526,11 +4186,7 @@
           <t xml:space="preserve">Ateles belzebuth </t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ateles belzebuth </t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4573,11 +4229,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4620,11 +4272,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4667,11 +4315,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4714,11 +4358,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4761,11 +4401,7 @@
           <t>Cavia porcellus</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Cavia porcellus</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4808,11 +4444,7 @@
           <t>Myocastor coypus</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Myocastor coypus</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4855,11 +4487,7 @@
           <t>Sardinella longiceps</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Sardinella longiceps</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4902,11 +4530,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4949,11 +4573,7 @@
           <t>Priodontes maximus</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Priodontes maximus</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4996,11 +4616,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5043,11 +4659,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5090,11 +4702,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5137,11 +4745,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5184,11 +4788,7 @@
           <t>Equus caballus</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Equus caballus</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5231,11 +4831,7 @@
           <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5278,11 +4874,7 @@
           <t>Lycalopex sechurae</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Lycalopex sechurae</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5325,11 +4917,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5372,11 +4960,7 @@
           <t>Speothos venaticus</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5419,11 +5003,7 @@
           <t xml:space="preserve">Sphiggurus insidiosus </t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sphiggurus insidiosus </t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5466,11 +5046,7 @@
           <t>Callicebus lugens</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Callicebus lugens</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5513,11 +5089,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5560,11 +5132,7 @@
           <t>Didelphis albiventris</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Didelphis albiventris</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5607,11 +5175,7 @@
           <t>Euphractus sexcinctus</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Euphractus sexcinctus</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5654,11 +5218,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5701,11 +5261,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5748,11 +5304,7 @@
           <t>Bradypus tridactylus</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Bradypus tridactylus</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5795,11 +5347,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5842,11 +5390,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5889,11 +5433,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5936,11 +5476,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5983,11 +5519,7 @@
           <t>Tapirus terrestris</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Tapirus terrestris</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6030,11 +5562,7 @@
           <t>Chiropotes albinasus</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Chiropotes albinasus</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6077,11 +5605,7 @@
           <t>Plecturocebus moloch</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Plecturocebus moloch</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6124,11 +5648,7 @@
           <t>Procyon lotor</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Procyon lotor</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6171,11 +5691,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6218,11 +5734,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6265,11 +5777,7 @@
           <t xml:space="preserve">Dasypus sabanicola </t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypus sabanicola </t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6312,11 +5820,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6359,11 +5863,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6406,11 +5906,7 @@
           <t>Alouatta guariba</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6453,11 +5949,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6500,11 +5992,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6547,11 +6035,7 @@
           <t>Didelphis marsupialis</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Didelphis marsupialis</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6594,11 +6078,7 @@
           <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6641,11 +6121,7 @@
           <t>Pecari tajacu</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Pecari tajacu</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6688,11 +6164,7 @@
           <t>Plecturocebus moloch</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Plecturocebus moloch</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6735,11 +6207,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6782,11 +6250,7 @@
           <t>Puma concolor</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6829,11 +6293,7 @@
           <t>Speothos venaticus</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6876,11 +6336,7 @@
           <t>Trinomys dimidiatus</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Trinomys dimidiatus</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6923,11 +6379,7 @@
           <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6970,11 +6422,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7017,11 +6465,7 @@
           <t>Ateles belzebuth</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7064,11 +6508,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7111,11 +6551,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7158,11 +6594,7 @@
           <t>Trinomys dimidiatus</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Trinomys dimidiatus</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7205,11 +6637,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7252,11 +6680,7 @@
           <t>Lama glama</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Lama glama</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7299,11 +6723,7 @@
           <t>Plecturocebus moloch</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Plecturocebus moloch</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7346,11 +6766,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7393,11 +6809,7 @@
           <t>Pudu puda</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Pudu puda</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7440,11 +6852,7 @@
           <t>Ateles belzebuth</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7487,11 +6895,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7534,11 +6938,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7581,11 +6981,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7628,11 +7024,7 @@
           <t>Canis familiaris</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Canis familiaris</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7675,11 +7067,7 @@
           <t>Priodontes maximus</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Priodontes maximus</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7722,11 +7110,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7769,11 +7153,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7816,11 +7196,7 @@
           <t>Plecturocebus moloch</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Plecturocebus moloch</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7863,11 +7239,7 @@
           <t>Tapirus terrestris</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Tapirus terrestris</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7910,11 +7282,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7957,11 +7325,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8004,11 +7368,7 @@
           <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8051,11 +7411,7 @@
           <t>Nasua nasua</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Nasua nasua</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8098,11 +7454,7 @@
           <t>Plecturocebus moloch</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>Plecturocebus moloch</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8145,11 +7497,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8192,11 +7540,7 @@
           <t>Pteralopex atrata</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>Pteralopex atrata</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8239,11 +7583,7 @@
           <t>Puma concolor</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8286,11 +7626,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8333,11 +7669,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8380,11 +7712,7 @@
           <t>Bos taurus</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Bos taurus</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8427,11 +7755,7 @@
           <t>Callithrix emiliae</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Callithrix emiliae</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8474,11 +7798,7 @@
           <t>Callithrix penicillata</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Callithrix penicillata</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8521,11 +7841,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8568,11 +7884,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8615,11 +7927,7 @@
           <t>Chrysocyon brachyurus</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>Chrysocyon brachyurus</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8662,11 +7970,7 @@
           <t>Dasypus sabanicola</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>Dasypus sabanicola</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8709,11 +8013,7 @@
           <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>Hydrochaeris hydrochaeris</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8756,11 +8056,7 @@
           <t>Plecturocebus moloch</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>Plecturocebus moloch</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8803,11 +8099,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8850,11 +8142,7 @@
           <t>Puma concolor</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8897,11 +8185,7 @@
           <t>Rattus rattus</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>Rattus rattus</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8944,11 +8228,7 @@
           <t>Speothos venaticus</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8991,11 +8271,7 @@
           <t>Sus scrofa</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9038,11 +8314,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9085,11 +8357,7 @@
           <t>Puma concolor</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9132,11 +8400,7 @@
           <t>Ateles belzebuth</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9179,11 +8443,7 @@
           <t>Canis lupus familiaris</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9226,11 +8486,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9273,11 +8529,7 @@
           <t>Sylvilagus floridanus</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>Sylvilagus floridanus</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9320,11 +8572,7 @@
           <t>Alouatta guariba</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9367,11 +8615,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9414,11 +8658,7 @@
           <t>Puma concolor</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>Puma concolor</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9461,11 +8701,7 @@
           <t>Sphiggurus insidiosus</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9508,11 +8744,7 @@
           <t>Sylvilagus floridanus</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>Sylvilagus floridanus</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9555,11 +8787,7 @@
           <t>Ateles belzebuth</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>Ateles belzebuth</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9602,11 +8830,7 @@
           <t>Alouatta guariba</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>Alouatta guariba</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9649,11 +8873,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9696,11 +8916,7 @@
           <t>Tamandua tetradactyla</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>Tamandua tetradactyla</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9743,11 +8959,7 @@
           <t>Didelphis marsupialis</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>Didelphis marsupialis</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9790,11 +9002,7 @@
           <t>Pseudalopex culpaeus</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>Pseudalopex culpaeus</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
